--- a/数据整理/stocks/港股/00813-世茂集团.xlsx
+++ b/数据整理/stocks/港股/00813-世茂集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8.25</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1558</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.54</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.50</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00813-世茂集团.xlsx
+++ b/数据整理/stocks/港股/00813-世茂集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7867</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00813-世茂集团.xlsx
+++ b/数据整理/stocks/港股/00813-世茂集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00813-世茂集团.xlsx
+++ b/数据整理/stocks/港股/00813-世茂集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00813-世茂集团.xlsx
+++ b/数据整理/stocks/港股/00813-世茂集团.xlsx
@@ -1036,12 +1036,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/00813-世茂集团.xlsx
+++ b/数据整理/stocks/港股/00813-世茂集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1162,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1178,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.22</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.87</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00813-世茂集团.xlsx
+++ b/数据整理/stocks/港股/00813-世茂集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1257,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -1178,14 +1273,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="5">
@@ -1194,14 +1289,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.22</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1305,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.87</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00813-世茂集团.xlsx
+++ b/数据整理/stocks/港股/00813-世茂集团.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8153</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0530</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.87</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,74 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1558</t>
+          <t>0.4004</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0608</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,74 +733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7867</t>
+          <t>0.3800</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,7 +967,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1073,36 +997,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3800</t>
+          <t>0.7867</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1099,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1167,36 +1129,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>91.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4004</t>
+          <t>1.1558</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1210,128 +1210,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.87</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00813-世茂集团.xlsx
+++ b/数据整理/stocks/港股/00813-世茂集团.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.22</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.87</v>
       </c>
     </row>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>97.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4004</t>
+          <t>0.1284</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -743,22 +760,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3800</t>
+          <t>0.4004</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -771,6 +788,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -933,138 +1044,6 @@
       </c>
       <c r="H4" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7867</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1139,26 +1118,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1558</t>
+          <t>0.7867</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1177,26 +1156,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0608</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1205,6 +1184,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1558</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
